--- a/数据整理/stocks/港股/02162-康诺亚-B.xlsx
+++ b/数据整理/stocks/港股/02162-康诺亚-B.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -498,6 +515,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
